--- a/11jazzfestival/plist.xlsx
+++ b/11jazzfestival/plist.xlsx
@@ -26,360 +26,399 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
+    <t>은두두조 마카티니 트리오</t>
+  </si>
+  <si>
+    <t xml:space="preserve">숨라 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">겨울에서봄  </t>
+  </si>
+  <si>
+    <t>용투더썬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마누엘 구티에레스 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">욘 DJ Set </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서정밴드 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">조이 알렉산더 트리오 </t>
+  </si>
+  <si>
+    <t>피아노포르테</t>
+  </si>
+  <si>
+    <t xml:space="preserve">샬로쉬 &amp; 다니엘 자미르 </t>
+  </si>
+  <si>
+    <t>뮤직그룹 세움</t>
+  </si>
+  <si>
+    <t>재즈 인 검은사막 : 임미정 x 류휘만</t>
+  </si>
+  <si>
+    <t>베를린 피플</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정수민 트리오 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">스케치북 퀄텟 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nduduzo Makhathini Trio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMRRÁ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter to Spring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yong to the Sun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Gutiérrez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEOJEONG BAND </t>
+  </si>
+  <si>
+    <t>Joey Alexander Trio</t>
+  </si>
+  <si>
+    <t>Pianoforte : Baptiste Trotignon / Bojan Z / Eric Legnini / Pierre de Bethmann</t>
+  </si>
+  <si>
+    <t>SHALOSH &amp; Daniel Zamir</t>
+  </si>
+  <si>
+    <t>SE:UM Musicgroup SE:UM</t>
+  </si>
+  <si>
+    <t>Jazz in Black Desert : Mijung Lim x Hwiman Ryu</t>
+  </si>
+  <si>
+    <t>Tobias Meinhart - Berlin People</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumin Jung Trio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sketchbook Quartet  </t>
+  </si>
+  <si>
+    <t>nduduzo.png</t>
+  </si>
+  <si>
+    <t>shalosh.png</t>
+  </si>
+  <si>
+    <t>yong.png</t>
+  </si>
+  <si>
+    <t>daniel_trio.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepmind01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jon.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haein.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horn.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joeytrio.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manuel.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pianoforte.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seum.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjband.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sketchbook.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumin.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumrra.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>berlinpeople.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtos.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한글 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아가타 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGATHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agatha.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아르코홀릭 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCO-HOLIC  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arco.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bohemian Betyars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bohemian.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다니엘 가르시아 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아비샤이 코헨 퀄텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바렌시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Barencia  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barencia.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보헤미안 베티아스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daniel García</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daniel.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다니엘 가르시아 트리오 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel García Trio  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Avishai Cohen Quartet  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avishai.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">딥마인드 [박제신, 이영우, 김종국, 송준호, 안상준] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Mind [Jaeshin Park, Youngwoo Lee, Jongkuk Kim, Junho Song, Sangjun Ahn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ Set JON DJ Set </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이에이비에스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EABS  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eabs.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">에스터 라다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ester Rada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ester.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유레카 밴드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eureka Band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eureka.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이브 포인츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Five Points </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fivepoints.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이지혜 트리오 feat. 전송이 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gee Hye Lee Trio feat. Song Yi Jeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leesong.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조해인 퀸텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hae In Cho Quintet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한스 니스반트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hans Nieswandt </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hans.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하드피아노 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARDPIANO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardpiano.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">재즈미어 혼 </t>
-  </si>
-  <si>
-    <t>은두두조 마카티니 트리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazzmeia Horn </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이지민 퀄텟 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimin Lee Quartet  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jimin.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">호아나 고밀라 &amp; 라이아 바예스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Joana Gomila &amp; Laia Vallès  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joana.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">김현철 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">하드피아노 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">숨라 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이지혜 트리오 feat. 전송이 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">겨울에서봄  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">호아나 고밀라 &amp; 라이아 바예스 </t>
-  </si>
-  <si>
-    <t>조해인 퀸텟</t>
-  </si>
-  <si>
-    <t>용투더썬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마누엘 구티에레스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">욘 DJ Set </t>
-  </si>
-  <si>
-    <t xml:space="preserve">서정밴드 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">유레카 밴드 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">조이 알렉산더 트리오 </t>
-  </si>
-  <si>
-    <t>피아노포르테</t>
-  </si>
-  <si>
-    <t xml:space="preserve">샬로쉬 &amp; 다니엘 자미르 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">에스터 라다 </t>
-  </si>
-  <si>
-    <t>뮤직그룹 세움</t>
-  </si>
-  <si>
-    <t>재즈 인 검은사막 : 임미정 x 류휘만</t>
-  </si>
-  <si>
-    <t>베를린 피플</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이지민 퀄텟 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">정수민 트리오 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">한스 니스반트 </t>
-  </si>
-  <si>
-    <t>파이브 포인츠</t>
-  </si>
-  <si>
-    <t>아비샤이 코헨 퀄텟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다니엘 가르시아 트리오 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">딥마인드 [박제신, 이영우, 김종국, 송준호, 안상준] </t>
-  </si>
-  <si>
-    <t>바렌시아</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이에이비에스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">스케치북 퀄텟 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jazzmeia Horn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nduduzo Makhathini Trio  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">KIM HYUN CHUL  </t>
-  </si>
-  <si>
-    <t>HARDPIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUMRRÁ </t>
-  </si>
-  <si>
-    <t>Gee Hye Lee Trio feat. Song Yi Jeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter to Spring </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joana Gomila &amp; Laia Vallès  </t>
-  </si>
-  <si>
-    <t>Hae In Cho Quintet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yong to the Sun </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel Gutiérrez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ Set JON DJ Set </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEOJEONG BAND </t>
-  </si>
-  <si>
-    <t>Eureka Band</t>
-  </si>
-  <si>
-    <t>Joey Alexander Trio</t>
-  </si>
-  <si>
-    <t>Pianoforte : Baptiste Trotignon / Bojan Z / Eric Legnini / Pierre de Bethmann</t>
-  </si>
-  <si>
-    <t>SHALOSH &amp; Daniel Zamir</t>
-  </si>
-  <si>
-    <t>Ester Rada</t>
-  </si>
-  <si>
-    <t>SE:UM Musicgroup SE:UM</t>
-  </si>
-  <si>
-    <t>Jazz in Black Desert : Mijung Lim x Hwiman Ryu</t>
-  </si>
-  <si>
-    <t>Tobias Meinhart - Berlin People</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jimin Lee Quartet  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumin Jung Trio  </t>
-  </si>
-  <si>
-    <t>Daniel García</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hans Nieswandt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Five Points </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avishai Cohen Quartet  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel García Trio  </t>
-  </si>
-  <si>
-    <t>Deep Mind [Jaeshin Park, Youngwoo Lee, Jongkuk Kim, Junho Song, Sangjun Ahn]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barencia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EABS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sketchbook Quartet  </t>
-  </si>
-  <si>
-    <t>avishai.png</t>
-  </si>
-  <si>
-    <t>barencia.png</t>
-  </si>
-  <si>
-    <t>eabs.png</t>
-  </si>
-  <si>
-    <t>hans.png</t>
-  </si>
-  <si>
-    <t>hardpiano.png</t>
-  </si>
-  <si>
-    <t>nduduzo.png</t>
-  </si>
-  <si>
-    <t>shalosh.png</t>
-  </si>
-  <si>
-    <t>yong.png</t>
-  </si>
-  <si>
-    <t>daniel.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daniel_trio.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deepmind01.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jon.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eureka.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fivepoints.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leesong.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>haein.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>horn.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jimin.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joana.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joeytrio.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kim.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manuel.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pianoforte.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seum.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sjband.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sketchbook.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sumin.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sumrra.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>berlinpeople.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtos.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">한글 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">아가타 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGATHA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agatha.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">아르코홀릭 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ARCO-HOLIC  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arco.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bohemian Betyars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ester.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보헤미안 베티아스 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bohemian.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">다니엘 가르시아 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,12 +451,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -426,12 +474,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,13 +780,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -743,13 +794,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -757,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -771,13 +822,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -785,13 +836,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -799,13 +850,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -813,27 +864,27 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -841,13 +892,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -855,13 +906,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -869,13 +920,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -883,13 +934,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -897,13 +948,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -911,27 +962,27 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -939,13 +990,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -953,13 +1004,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -967,13 +1018,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,10 +1032,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,13 +1043,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,13 +1057,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,13 +1071,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,13 +1085,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1048,13 +1099,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,13 +1113,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,13 +1127,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,13 +1141,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1104,13 +1155,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,13 +1169,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,13 +1183,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,13 +1197,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,13 +1211,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1174,13 +1225,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,13 +1239,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,13 +1253,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1216,13 +1267,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
